--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +607,7 @@
     <col min="2" max="4" width="10.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -621,8 +629,11 @@
       <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -644,13 +655,16 @@
       <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -660,7 +674,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -682,157 +696,178 @@
       <c r="G5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="G10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -841,158 +876,347 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2029,6 +2253,60 @@
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TFRC" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "TAI" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TFRC" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,22 +615,22 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -641,22 +641,22 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -965,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -1017,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="9">
         <v>7</v>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="9">
         <v>9</v>
@@ -1147,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9">
         <v>10</v>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2336,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TFRC" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -815,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -827,7 +827,7 @@
         <v>40</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>40</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -919,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -945,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -965,25 +965,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -991,25 +991,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>40</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1043,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -1069,10 +1069,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1095,10 +1095,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -1162,23 +1162,63 @@
         <v>10</v>
       </c>
       <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2307,6 +2347,18 @@
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2323,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -766,16 +766,16 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -795,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
         <v>10</v>
-      </c>
-      <c r="G10">
-        <v>40</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>40</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,13 +977,13 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1040,51 +1040,51 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -1092,163 +1092,263 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
         <v>15</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>45</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>30</v>
       </c>
-      <c r="C23" s="9">
-        <v>8</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="H23">
         <v>10</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
       <c r="G24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>70</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C30" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G30">
         <v>100</v>
       </c>
-      <c r="H25">
+      <c r="H30">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2359,6 +2459,36 @@
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A6" sqref="A5:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>25</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>25</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>25</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>25</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>26</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>29</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>30</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>31</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>32</v>

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1188,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>80</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>80</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
         <v>80</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,10 +714,10 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -740,16 +740,16 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -766,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -792,10 +792,10 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>10</v>

--- a/docs/excel/TFRC.xlsx
+++ b/docs/excel/TFRC.xlsx
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>60</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
